--- a/new_2/Son_Hali.xlsx
+++ b/new_2/Son_Hali.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeynepgunesozkan/Desktop/VowelHarmony/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeynepgunesozkan/Desktop/Dr. Manuel Perea/VowelHarmony/new_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73096C42-D170-7B46-9F2C-DA8DAB73EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B6C95-01F4-544B-A12D-7166FF6B4B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
